--- a/natmiOut/OldD4/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.282967909664629</v>
+        <v>9.161371333333333</v>
       </c>
       <c r="H2">
-        <v>8.282967909664629</v>
+        <v>27.484114</v>
       </c>
       <c r="I2">
-        <v>0.0658335338323274</v>
+        <v>0.06605416725676617</v>
       </c>
       <c r="J2">
-        <v>0.0658335338323274</v>
+        <v>0.06778477306083092</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.8612340185074</v>
+        <v>14.03654733333333</v>
       </c>
       <c r="N2">
-        <v>12.8612340185074</v>
+        <v>42.10964199999999</v>
       </c>
       <c r="O2">
-        <v>0.2966010895160291</v>
+        <v>0.3033248635033713</v>
       </c>
       <c r="P2">
-        <v>0.2966010895160291</v>
+        <v>0.3241347232362796</v>
       </c>
       <c r="Q2">
-        <v>106.5291886539839</v>
+        <v>128.5940223585764</v>
       </c>
       <c r="R2">
-        <v>106.5291886539839</v>
+        <v>1157.346201227188</v>
       </c>
       <c r="S2">
-        <v>0.01952629786135867</v>
+        <v>0.02003587126698746</v>
       </c>
       <c r="T2">
-        <v>0.01952629786135867</v>
+        <v>0.02197139865570645</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.282967909664629</v>
+        <v>9.161371333333333</v>
       </c>
       <c r="H3">
-        <v>8.282967909664629</v>
+        <v>27.484114</v>
       </c>
       <c r="I3">
-        <v>0.0658335338323274</v>
+        <v>0.06605416725676617</v>
       </c>
       <c r="J3">
-        <v>0.0658335338323274</v>
+        <v>0.06778477306083092</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.44803308426988</v>
+        <v>5.85326</v>
       </c>
       <c r="N3">
-        <v>5.44803308426988</v>
+        <v>17.55978</v>
       </c>
       <c r="O3">
-        <v>0.1256405525463994</v>
+        <v>0.1264868951307928</v>
       </c>
       <c r="P3">
-        <v>0.1256405525463994</v>
+        <v>0.1351646359375356</v>
       </c>
       <c r="Q3">
-        <v>45.12588320779863</v>
+        <v>53.62388837054667</v>
       </c>
       <c r="R3">
-        <v>45.12588320779863</v>
+        <v>482.61499533492</v>
       </c>
       <c r="S3">
-        <v>0.008271361566775694</v>
+        <v>0.008354986526758434</v>
       </c>
       <c r="T3">
-        <v>0.008271361566775694</v>
+        <v>0.009162104172875682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.282967909664629</v>
+        <v>9.161371333333333</v>
       </c>
       <c r="H4">
-        <v>8.282967909664629</v>
+        <v>27.484114</v>
       </c>
       <c r="I4">
-        <v>0.0658335338323274</v>
+        <v>0.06605416725676617</v>
       </c>
       <c r="J4">
-        <v>0.0658335338323274</v>
+        <v>0.06778477306083092</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.91506572694855</v>
+        <v>9.056607</v>
       </c>
       <c r="N4">
-        <v>7.91506572694855</v>
+        <v>27.169821</v>
       </c>
       <c r="O4">
-        <v>0.1825343598309217</v>
+        <v>0.1957100999869824</v>
       </c>
       <c r="P4">
-        <v>0.1825343598309217</v>
+        <v>0.2091369575218488</v>
       </c>
       <c r="Q4">
-        <v>65.56023541920118</v>
+        <v>82.970939747066</v>
       </c>
       <c r="R4">
-        <v>65.56023541920118</v>
+        <v>746.7384577235939</v>
       </c>
       <c r="S4">
-        <v>0.01201688195349121</v>
+        <v>0.01292746767837856</v>
       </c>
       <c r="T4">
-        <v>0.01201688195349121</v>
+        <v>0.01417630120425115</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.282967909664629</v>
+        <v>9.161371333333333</v>
       </c>
       <c r="H5">
-        <v>8.282967909664629</v>
+        <v>27.484114</v>
       </c>
       <c r="I5">
-        <v>0.0658335338323274</v>
+        <v>0.06605416725676617</v>
       </c>
       <c r="J5">
-        <v>0.0658335338323274</v>
+        <v>0.06778477306083092</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.22595308907745</v>
+        <v>8.416348666666666</v>
       </c>
       <c r="N5">
-        <v>8.22595308907745</v>
+        <v>25.249046</v>
       </c>
       <c r="O5">
-        <v>0.1897039308216607</v>
+        <v>0.1818743420221987</v>
       </c>
       <c r="P5">
-        <v>0.1897039308216607</v>
+        <v>0.1943519856376384</v>
       </c>
       <c r="Q5">
-        <v>68.13530546323514</v>
+        <v>77.10529540613821</v>
       </c>
       <c r="R5">
-        <v>68.13530546323514</v>
+        <v>693.9476586552439</v>
       </c>
       <c r="S5">
-        <v>0.01248888014787329</v>
+        <v>0.01201355820764861</v>
       </c>
       <c r="T5">
-        <v>0.01248888014787329</v>
+        <v>0.01317410524036919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.282967909664629</v>
+        <v>9.161371333333333</v>
       </c>
       <c r="H6">
-        <v>8.282967909664629</v>
+        <v>27.484114</v>
       </c>
       <c r="I6">
-        <v>0.0658335338323274</v>
+        <v>0.06605416725676617</v>
       </c>
       <c r="J6">
-        <v>0.0658335338323274</v>
+        <v>0.06778477306083092</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.91177333557564</v>
+        <v>8.912860999999999</v>
       </c>
       <c r="N6">
-        <v>8.91177333557564</v>
+        <v>17.825722</v>
       </c>
       <c r="O6">
-        <v>0.2055200672849891</v>
+        <v>0.1926037993566548</v>
       </c>
       <c r="P6">
-        <v>0.2055200672849891</v>
+        <v>0.1372116976666974</v>
       </c>
       <c r="Q6">
-        <v>73.81593255677794</v>
+        <v>81.65402926338466</v>
       </c>
       <c r="R6">
-        <v>73.81593255677794</v>
+        <v>489.9241755803079</v>
       </c>
       <c r="S6">
-        <v>0.01353011230282854</v>
+        <v>0.01272228357699311</v>
       </c>
       <c r="T6">
-        <v>0.01353011230282854</v>
+        <v>0.009300863787628426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2695429366305</v>
+        <v>20.99754233333333</v>
       </c>
       <c r="H7">
-        <v>19.2695429366305</v>
+        <v>62.992627</v>
       </c>
       <c r="I7">
-        <v>0.1531555018306854</v>
+        <v>0.1513938386298749</v>
       </c>
       <c r="J7">
-        <v>0.1531555018306854</v>
+        <v>0.1553603265399267</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.8612340185074</v>
+        <v>14.03654733333333</v>
       </c>
       <c r="N7">
-        <v>12.8612340185074</v>
+        <v>42.10964199999999</v>
       </c>
       <c r="O7">
-        <v>0.2966010895160291</v>
+        <v>0.3033248635033713</v>
       </c>
       <c r="P7">
-        <v>0.2966010895160291</v>
+        <v>0.3241347232362796</v>
       </c>
       <c r="Q7">
-        <v>247.8301011376812</v>
+        <v>294.7329968455037</v>
       </c>
       <c r="R7">
-        <v>247.8301011376812</v>
+        <v>2652.596971609534</v>
       </c>
       <c r="S7">
-        <v>0.04542608870835548</v>
+        <v>0.04592151543765822</v>
       </c>
       <c r="T7">
-        <v>0.04542608870835548</v>
+        <v>0.05035767644491717</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.2695429366305</v>
+        <v>20.99754233333333</v>
       </c>
       <c r="H8">
-        <v>19.2695429366305</v>
+        <v>62.992627</v>
       </c>
       <c r="I8">
-        <v>0.1531555018306854</v>
+        <v>0.1513938386298749</v>
       </c>
       <c r="J8">
-        <v>0.1531555018306854</v>
+        <v>0.1553603265399267</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.44803308426988</v>
+        <v>5.85326</v>
       </c>
       <c r="N8">
-        <v>5.44803308426988</v>
+        <v>17.55978</v>
       </c>
       <c r="O8">
-        <v>0.1256405525463994</v>
+        <v>0.1264868951307928</v>
       </c>
       <c r="P8">
-        <v>0.1256405525463994</v>
+        <v>0.1351646359375356</v>
       </c>
       <c r="Q8">
-        <v>104.9811074375219</v>
+        <v>122.9040746380066</v>
       </c>
       <c r="R8">
-        <v>104.9811074375219</v>
+        <v>1106.13667174206</v>
       </c>
       <c r="S8">
-        <v>0.0192425418755284</v>
+        <v>0.01914933659022516</v>
       </c>
       <c r="T8">
-        <v>0.0192425418755284</v>
+        <v>0.02099922197590584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.2695429366305</v>
+        <v>20.99754233333333</v>
       </c>
       <c r="H9">
-        <v>19.2695429366305</v>
+        <v>62.992627</v>
       </c>
       <c r="I9">
-        <v>0.1531555018306854</v>
+        <v>0.1513938386298749</v>
       </c>
       <c r="J9">
-        <v>0.1531555018306854</v>
+        <v>0.1553603265399267</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.91506572694855</v>
+        <v>9.056607</v>
       </c>
       <c r="N9">
-        <v>7.91506572694855</v>
+        <v>27.169821</v>
       </c>
       <c r="O9">
-        <v>0.1825343598309217</v>
+        <v>0.1957100999869824</v>
       </c>
       <c r="P9">
-        <v>0.1825343598309217</v>
+        <v>0.2091369575218488</v>
       </c>
       <c r="Q9">
-        <v>152.5196988716876</v>
+        <v>190.166488878863</v>
       </c>
       <c r="R9">
-        <v>152.5196988716876</v>
+        <v>1711.498399909767</v>
       </c>
       <c r="S9">
-        <v>0.02795614148124772</v>
+        <v>0.02962930329566588</v>
       </c>
       <c r="T9">
-        <v>0.02795614148124772</v>
+        <v>0.03249158601216121</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.2695429366305</v>
+        <v>20.99754233333333</v>
       </c>
       <c r="H10">
-        <v>19.2695429366305</v>
+        <v>62.992627</v>
       </c>
       <c r="I10">
-        <v>0.1531555018306854</v>
+        <v>0.1513938386298749</v>
       </c>
       <c r="J10">
-        <v>0.1531555018306854</v>
+        <v>0.1553603265399267</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.22595308907745</v>
+        <v>8.416348666666666</v>
       </c>
       <c r="N10">
-        <v>8.22595308907745</v>
+        <v>25.249046</v>
       </c>
       <c r="O10">
-        <v>0.1897039308216607</v>
+        <v>0.1818743420221987</v>
       </c>
       <c r="P10">
-        <v>0.1897039308216607</v>
+        <v>0.1943519856376384</v>
       </c>
       <c r="Q10">
-        <v>158.5103562446862</v>
+        <v>176.7226374204268</v>
       </c>
       <c r="R10">
-        <v>158.5103562446862</v>
+        <v>1590.503736783842</v>
       </c>
       <c r="S10">
-        <v>0.02905420072424507</v>
+        <v>0.02753465478702342</v>
       </c>
       <c r="T10">
-        <v>0.02905420072424507</v>
+        <v>0.03019458795234664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.2695429366305</v>
+        <v>20.99754233333333</v>
       </c>
       <c r="H11">
-        <v>19.2695429366305</v>
+        <v>62.992627</v>
       </c>
       <c r="I11">
-        <v>0.1531555018306854</v>
+        <v>0.1513938386298749</v>
       </c>
       <c r="J11">
-        <v>0.1531555018306854</v>
+        <v>0.1553603265399267</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.91177333557564</v>
+        <v>8.912860999999999</v>
       </c>
       <c r="N11">
-        <v>8.91177333557564</v>
+        <v>17.825722</v>
       </c>
       <c r="O11">
-        <v>0.2055200672849891</v>
+        <v>0.1926037993566548</v>
       </c>
       <c r="P11">
-        <v>0.2055200672849891</v>
+        <v>0.1372116976666974</v>
       </c>
       <c r="Q11">
-        <v>171.7257989313936</v>
+        <v>187.1481761586157</v>
       </c>
       <c r="R11">
-        <v>171.7257989313936</v>
+        <v>1122.889056951694</v>
       </c>
       <c r="S11">
-        <v>0.03147652904130874</v>
+        <v>0.0291590285193022</v>
       </c>
       <c r="T11">
-        <v>0.03147652904130874</v>
+        <v>0.02131725415459581</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.7519335691378</v>
+        <v>56.49372733333333</v>
       </c>
       <c r="H12">
-        <v>46.7519335691378</v>
+        <v>169.481182</v>
       </c>
       <c r="I12">
-        <v>0.3715872177603518</v>
+        <v>0.4073239669542351</v>
       </c>
       <c r="J12">
-        <v>0.3715872177603518</v>
+        <v>0.4179957723924221</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.8612340185074</v>
+        <v>14.03654733333333</v>
       </c>
       <c r="N12">
-        <v>12.8612340185074</v>
+        <v>42.10964199999999</v>
       </c>
       <c r="O12">
-        <v>0.2966010895160291</v>
+        <v>0.3033248635033713</v>
       </c>
       <c r="P12">
-        <v>0.2966010895160291</v>
+        <v>0.3241347232362796</v>
       </c>
       <c r="Q12">
-        <v>601.2875584503931</v>
+        <v>792.9768777507603</v>
       </c>
       <c r="R12">
-        <v>601.2875584503931</v>
+        <v>7136.791899756842</v>
       </c>
       <c r="S12">
-        <v>0.1102131736379503</v>
+        <v>0.1235514866780451</v>
       </c>
       <c r="T12">
-        <v>0.1102131736379503</v>
+        <v>0.1354869439983527</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>46.7519335691378</v>
+        <v>56.49372733333333</v>
       </c>
       <c r="H13">
-        <v>46.7519335691378</v>
+        <v>169.481182</v>
       </c>
       <c r="I13">
-        <v>0.3715872177603518</v>
+        <v>0.4073239669542351</v>
       </c>
       <c r="J13">
-        <v>0.3715872177603518</v>
+        <v>0.4179957723924221</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.44803308426988</v>
+        <v>5.85326</v>
       </c>
       <c r="N13">
-        <v>5.44803308426988</v>
+        <v>17.55978</v>
       </c>
       <c r="O13">
-        <v>0.1256405525463994</v>
+        <v>0.1264868951307928</v>
       </c>
       <c r="P13">
-        <v>0.1256405525463994</v>
+        <v>0.1351646359375356</v>
       </c>
       <c r="Q13">
-        <v>254.7060808382503</v>
+        <v>330.6724744511067</v>
       </c>
       <c r="R13">
-        <v>254.7060808382503</v>
+        <v>2976.05227005996</v>
       </c>
       <c r="S13">
-        <v>0.04668642335858984</v>
+        <v>0.05152114389239885</v>
       </c>
       <c r="T13">
-        <v>0.04668642335858984</v>
+        <v>0.05649824639885074</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>46.7519335691378</v>
+        <v>56.49372733333333</v>
       </c>
       <c r="H14">
-        <v>46.7519335691378</v>
+        <v>169.481182</v>
       </c>
       <c r="I14">
-        <v>0.3715872177603518</v>
+        <v>0.4073239669542351</v>
       </c>
       <c r="J14">
-        <v>0.3715872177603518</v>
+        <v>0.4179957723924221</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.91506572694855</v>
+        <v>9.056607</v>
       </c>
       <c r="N14">
-        <v>7.91506572694855</v>
+        <v>27.169821</v>
       </c>
       <c r="O14">
-        <v>0.1825343598309217</v>
+        <v>0.1957100999869824</v>
       </c>
       <c r="P14">
-        <v>0.1825343598309217</v>
+        <v>0.2091369575218488</v>
       </c>
       <c r="Q14">
-        <v>370.0446270616579</v>
+        <v>511.641486423158</v>
       </c>
       <c r="R14">
-        <v>370.0446270616579</v>
+        <v>4604.773377808421</v>
       </c>
       <c r="S14">
-        <v>0.0678274349152391</v>
+        <v>0.07971741429970763</v>
       </c>
       <c r="T14">
-        <v>0.0678274349152391</v>
+        <v>0.08741836409514636</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>46.7519335691378</v>
+        <v>56.49372733333333</v>
       </c>
       <c r="H15">
-        <v>46.7519335691378</v>
+        <v>169.481182</v>
       </c>
       <c r="I15">
-        <v>0.3715872177603518</v>
+        <v>0.4073239669542351</v>
       </c>
       <c r="J15">
-        <v>0.3715872177603518</v>
+        <v>0.4179957723924221</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.22595308907745</v>
+        <v>8.416348666666666</v>
       </c>
       <c r="N15">
-        <v>8.22595308907745</v>
+        <v>25.249046</v>
       </c>
       <c r="O15">
-        <v>0.1897039308216607</v>
+        <v>0.1818743420221987</v>
       </c>
       <c r="P15">
-        <v>0.1897039308216607</v>
+        <v>0.1943519856376384</v>
       </c>
       <c r="Q15">
-        <v>384.5792123633928</v>
+        <v>475.4709067169302</v>
       </c>
       <c r="R15">
-        <v>384.5792123633928</v>
+        <v>4279.238160452372</v>
       </c>
       <c r="S15">
-        <v>0.07049155585222314</v>
+        <v>0.07408177847967332</v>
       </c>
       <c r="T15">
-        <v>0.07049155585222314</v>
+        <v>0.08123830835260559</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>46.7519335691378</v>
+        <v>56.49372733333333</v>
       </c>
       <c r="H16">
-        <v>46.7519335691378</v>
+        <v>169.481182</v>
       </c>
       <c r="I16">
-        <v>0.3715872177603518</v>
+        <v>0.4073239669542351</v>
       </c>
       <c r="J16">
-        <v>0.3715872177603518</v>
+        <v>0.4179957723924221</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.91177333557564</v>
+        <v>8.912860999999999</v>
       </c>
       <c r="N16">
-        <v>8.91177333557564</v>
+        <v>17.825722</v>
       </c>
       <c r="O16">
-        <v>0.2055200672849891</v>
+        <v>0.1926037993566548</v>
       </c>
       <c r="P16">
-        <v>0.2055200672849891</v>
+        <v>0.1372116976666974</v>
       </c>
       <c r="Q16">
-        <v>416.6426349680459</v>
+        <v>503.5207390939006</v>
       </c>
       <c r="R16">
-        <v>416.6426349680459</v>
+        <v>3021.124434563404</v>
       </c>
       <c r="S16">
-        <v>0.0763686299963494</v>
+        <v>0.07845214360441019</v>
       </c>
       <c r="T16">
-        <v>0.0763686299963494</v>
+        <v>0.05735390954746668</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.3206217255339</v>
+        <v>41.419178</v>
       </c>
       <c r="H17">
-        <v>41.3206217255339</v>
+        <v>124.257534</v>
       </c>
       <c r="I17">
-        <v>0.3284188201630834</v>
+        <v>0.2986353474501419</v>
       </c>
       <c r="J17">
-        <v>0.3284188201630834</v>
+        <v>0.3064595330702122</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.8612340185074</v>
+        <v>14.03654733333333</v>
       </c>
       <c r="N17">
-        <v>12.8612340185074</v>
+        <v>42.10964199999999</v>
       </c>
       <c r="O17">
-        <v>0.2966010895160291</v>
+        <v>0.3033248635033713</v>
       </c>
       <c r="P17">
-        <v>0.2966010895160291</v>
+        <v>0.3241347232362796</v>
       </c>
       <c r="Q17">
-        <v>531.4341858023125</v>
+        <v>581.3822525047586</v>
       </c>
       <c r="R17">
-        <v>531.4341858023125</v>
+        <v>5232.440272542827</v>
       </c>
       <c r="S17">
-        <v>0.09740937987793935</v>
+        <v>0.09058352600259616</v>
       </c>
       <c r="T17">
-        <v>0.09740937987793935</v>
+        <v>0.09933417593483272</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.3206217255339</v>
+        <v>41.419178</v>
       </c>
       <c r="H18">
-        <v>41.3206217255339</v>
+        <v>124.257534</v>
       </c>
       <c r="I18">
-        <v>0.3284188201630834</v>
+        <v>0.2986353474501419</v>
       </c>
       <c r="J18">
-        <v>0.3284188201630834</v>
+        <v>0.3064595330702122</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.44803308426988</v>
+        <v>5.85326</v>
       </c>
       <c r="N18">
-        <v>5.44803308426988</v>
+        <v>17.55978</v>
       </c>
       <c r="O18">
-        <v>0.1256405525463994</v>
+        <v>0.1264868951307928</v>
       </c>
       <c r="P18">
-        <v>0.1256405525463994</v>
+        <v>0.1351646359375356</v>
       </c>
       <c r="Q18">
-        <v>225.1161142233094</v>
+        <v>242.43721782028</v>
       </c>
       <c r="R18">
-        <v>225.1161142233094</v>
+        <v>2181.93496038252</v>
       </c>
       <c r="S18">
-        <v>0.04126272203192638</v>
+        <v>0.03777345787527398</v>
       </c>
       <c r="T18">
-        <v>0.04126272203192638</v>
+        <v>0.04142249121702239</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.3206217255339</v>
+        <v>41.419178</v>
       </c>
       <c r="H19">
-        <v>41.3206217255339</v>
+        <v>124.257534</v>
       </c>
       <c r="I19">
-        <v>0.3284188201630834</v>
+        <v>0.2986353474501419</v>
       </c>
       <c r="J19">
-        <v>0.3284188201630834</v>
+        <v>0.3064595330702122</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.91506572694855</v>
+        <v>9.056607</v>
       </c>
       <c r="N19">
-        <v>7.91506572694855</v>
+        <v>27.169821</v>
       </c>
       <c r="O19">
-        <v>0.1825343598309217</v>
+        <v>0.1957100999869824</v>
       </c>
       <c r="P19">
-        <v>0.1825343598309217</v>
+        <v>0.2091369575218488</v>
       </c>
       <c r="Q19">
-        <v>327.055436835979</v>
+        <v>375.117217409046</v>
       </c>
       <c r="R19">
-        <v>327.055436835979</v>
+        <v>3376.054956681414</v>
       </c>
       <c r="S19">
-        <v>0.05994771909489503</v>
+        <v>0.05844595370911449</v>
       </c>
       <c r="T19">
-        <v>0.05994771909489503</v>
+        <v>0.06409201434987058</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.3206217255339</v>
+        <v>41.419178</v>
       </c>
       <c r="H20">
-        <v>41.3206217255339</v>
+        <v>124.257534</v>
       </c>
       <c r="I20">
-        <v>0.3284188201630834</v>
+        <v>0.2986353474501419</v>
       </c>
       <c r="J20">
-        <v>0.3284188201630834</v>
+        <v>0.3064595330702122</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.22595308907745</v>
+        <v>8.416348666666666</v>
       </c>
       <c r="N20">
-        <v>8.22595308907745</v>
+        <v>25.249046</v>
       </c>
       <c r="O20">
-        <v>0.1897039308216607</v>
+        <v>0.1818743420221987</v>
       </c>
       <c r="P20">
-        <v>0.1897039308216607</v>
+        <v>0.1943519856376384</v>
       </c>
       <c r="Q20">
-        <v>339.9014959257564</v>
+        <v>348.5982435347293</v>
       </c>
       <c r="R20">
-        <v>339.9014959257564</v>
+        <v>3137.384191812564</v>
       </c>
       <c r="S20">
-        <v>0.06230234114074899</v>
+        <v>0.05431410732206526</v>
       </c>
       <c r="T20">
-        <v>0.06230234114074899</v>
+        <v>0.05956101876977925</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.3206217255339</v>
+        <v>41.419178</v>
       </c>
       <c r="H21">
-        <v>41.3206217255339</v>
+        <v>124.257534</v>
       </c>
       <c r="I21">
-        <v>0.3284188201630834</v>
+        <v>0.2986353474501419</v>
       </c>
       <c r="J21">
-        <v>0.3284188201630834</v>
+        <v>0.3064595330702122</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.91177333557564</v>
+        <v>8.912860999999999</v>
       </c>
       <c r="N21">
-        <v>8.91177333557564</v>
+        <v>17.825722</v>
       </c>
       <c r="O21">
-        <v>0.2055200672849891</v>
+        <v>0.1926037993566548</v>
       </c>
       <c r="P21">
-        <v>0.2055200672849891</v>
+        <v>0.1372116976666974</v>
       </c>
       <c r="Q21">
-        <v>368.2400149030205</v>
+        <v>369.163376248258</v>
       </c>
       <c r="R21">
-        <v>368.2400149030205</v>
+        <v>2214.980257489548</v>
       </c>
       <c r="S21">
-        <v>0.06749665801757364</v>
+        <v>0.05751830254109204</v>
       </c>
       <c r="T21">
-        <v>0.06749665801757364</v>
+        <v>0.04204983279870721</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.191784747832</v>
+        <v>10.6230085</v>
       </c>
       <c r="H22">
-        <v>10.191784747832</v>
+        <v>21.246017</v>
       </c>
       <c r="I22">
-        <v>0.08100492641355204</v>
+        <v>0.07659267970898194</v>
       </c>
       <c r="J22">
-        <v>0.08100492641355204</v>
+        <v>0.05239959493660797</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.8612340185074</v>
+        <v>14.03654733333333</v>
       </c>
       <c r="N22">
-        <v>12.8612340185074</v>
+        <v>42.10964199999999</v>
       </c>
       <c r="O22">
-        <v>0.2966010895160291</v>
+        <v>0.3033248635033713</v>
       </c>
       <c r="P22">
-        <v>0.2966010895160291</v>
+        <v>0.3241347232362796</v>
       </c>
       <c r="Q22">
-        <v>131.0789287081218</v>
+        <v>149.1103616326523</v>
       </c>
       <c r="R22">
-        <v>131.0789287081218</v>
+        <v>894.662169795914</v>
       </c>
       <c r="S22">
-        <v>0.0240261494304253</v>
+        <v>0.02323246411808438</v>
       </c>
       <c r="T22">
-        <v>0.0240261494304253</v>
+        <v>0.01698452820247058</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.191784747832</v>
+        <v>10.6230085</v>
       </c>
       <c r="H23">
-        <v>10.191784747832</v>
+        <v>21.246017</v>
       </c>
       <c r="I23">
-        <v>0.08100492641355204</v>
+        <v>0.07659267970898194</v>
       </c>
       <c r="J23">
-        <v>0.08100492641355204</v>
+        <v>0.05239959493660797</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.44803308426988</v>
+        <v>5.85326</v>
       </c>
       <c r="N23">
-        <v>5.44803308426988</v>
+        <v>17.55978</v>
       </c>
       <c r="O23">
-        <v>0.1256405525463994</v>
+        <v>0.1264868951307928</v>
       </c>
       <c r="P23">
-        <v>0.1256405525463994</v>
+        <v>0.1351646359375356</v>
       </c>
       <c r="Q23">
-        <v>55.52518049394588</v>
+        <v>62.17923073271</v>
       </c>
       <c r="R23">
-        <v>55.52518049394588</v>
+        <v>373.07538439626</v>
       </c>
       <c r="S23">
-        <v>0.0101775037135791</v>
+        <v>0.009687970246136404</v>
       </c>
       <c r="T23">
-        <v>0.0101775037135791</v>
+        <v>0.00708257217288095</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.191784747832</v>
+        <v>10.6230085</v>
       </c>
       <c r="H24">
-        <v>10.191784747832</v>
+        <v>21.246017</v>
       </c>
       <c r="I24">
-        <v>0.08100492641355204</v>
+        <v>0.07659267970898194</v>
       </c>
       <c r="J24">
-        <v>0.08100492641355204</v>
+        <v>0.05239959493660797</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.91506572694855</v>
+        <v>9.056607</v>
       </c>
       <c r="N24">
-        <v>7.91506572694855</v>
+        <v>27.169821</v>
       </c>
       <c r="O24">
-        <v>0.1825343598309217</v>
+        <v>0.1957100999869824</v>
       </c>
       <c r="P24">
-        <v>0.1825343598309217</v>
+        <v>0.2091369575218488</v>
       </c>
       <c r="Q24">
-        <v>80.66864615400202</v>
+        <v>96.2084131421595</v>
       </c>
       <c r="R24">
-        <v>80.66864615400202</v>
+        <v>577.250478852957</v>
       </c>
       <c r="S24">
-        <v>0.01478618238604864</v>
+        <v>0.01498996100411577</v>
       </c>
       <c r="T24">
-        <v>0.01478618238604864</v>
+        <v>0.01095869186041946</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.191784747832</v>
+        <v>10.6230085</v>
       </c>
       <c r="H25">
-        <v>10.191784747832</v>
+        <v>21.246017</v>
       </c>
       <c r="I25">
-        <v>0.08100492641355204</v>
+        <v>0.07659267970898194</v>
       </c>
       <c r="J25">
-        <v>0.08100492641355204</v>
+        <v>0.05239959493660797</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.22595308907745</v>
+        <v>8.416348666666666</v>
       </c>
       <c r="N25">
-        <v>8.22595308907745</v>
+        <v>25.249046</v>
       </c>
       <c r="O25">
-        <v>0.1897039308216607</v>
+        <v>0.1818743420221987</v>
       </c>
       <c r="P25">
-        <v>0.1897039308216607</v>
+        <v>0.1943519856376384</v>
       </c>
       <c r="Q25">
-        <v>83.83714322964107</v>
+        <v>89.40694342496367</v>
       </c>
       <c r="R25">
-        <v>83.83714322964107</v>
+        <v>536.441660549782</v>
       </c>
       <c r="S25">
-        <v>0.01536695295657019</v>
+        <v>0.0139302432257881</v>
       </c>
       <c r="T25">
-        <v>0.01536695295657019</v>
+        <v>0.0101839653225377</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.191784747832</v>
+        <v>10.6230085</v>
       </c>
       <c r="H26">
-        <v>10.191784747832</v>
+        <v>21.246017</v>
       </c>
       <c r="I26">
-        <v>0.08100492641355204</v>
+        <v>0.07659267970898194</v>
       </c>
       <c r="J26">
-        <v>0.08100492641355204</v>
+        <v>0.05239959493660797</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.91177333557564</v>
+        <v>8.912860999999999</v>
       </c>
       <c r="N26">
-        <v>8.91177333557564</v>
+        <v>17.825722</v>
       </c>
       <c r="O26">
-        <v>0.2055200672849891</v>
+        <v>0.1926037993566548</v>
       </c>
       <c r="P26">
-        <v>0.2055200672849891</v>
+        <v>0.1372116976666974</v>
       </c>
       <c r="Q26">
-        <v>90.82687555765571</v>
+        <v>94.6813981623185</v>
       </c>
       <c r="R26">
-        <v>90.82687555765571</v>
+        <v>378.725592649274</v>
       </c>
       <c r="S26">
-        <v>0.01664813792692881</v>
+        <v>0.01475204111485729</v>
       </c>
       <c r="T26">
-        <v>0.01664813792692881</v>
+        <v>0.007189837378299259</v>
       </c>
     </row>
   </sheetData>
